--- a/Docs/Funding/GEF5/baviannskloof_scenes.xlsx
+++ b/Docs/Funding/GEF5/baviannskloof_scenes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\MSc GeoInformatics\Docs\Funding\GEF5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\Projects\PhD GeoInformatics\Docs\Funding\GEF5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="scenes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -247,9 +247,6 @@
     <t>DG</t>
   </si>
   <si>
-    <t>this same image is listed as pan-ms1-ms2 on DG and has colour thumbnail</t>
-  </si>
-  <si>
     <t>Worldview2</t>
   </si>
   <si>
@@ -374,6 +371,36 @@
   </si>
   <si>
     <t>Tchuganu Area</t>
+  </si>
+  <si>
+    <t>0.37m</t>
+  </si>
+  <si>
+    <t>1040010031309600</t>
+  </si>
+  <si>
+    <t>this same image is listed as pan-ms1-ms2 on DG and has colour thumbnail,  it does extend E of Sewefontein for nearby pristine areas</t>
+  </si>
+  <si>
+    <t>Sun Elev</t>
+  </si>
+  <si>
+    <t>52.9°</t>
+  </si>
+  <si>
+    <t>Image Nadir</t>
+  </si>
+  <si>
+    <t>27.1°</t>
+  </si>
+  <si>
+    <t>24.6°</t>
+  </si>
+  <si>
+    <t>34.4°</t>
+  </si>
+  <si>
+    <t>This is recent and v dry and doesn't cover all Tchnuganu.  It is however unlikely that the uncovered area will be needed.  Recent is nice.  But also check sun elev etc</t>
   </si>
 </sst>
 </file>
@@ -871,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -886,6 +913,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1231,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,7 +1272,7 @@
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,19 +1288,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>39703</v>
       </c>
@@ -1286,11 +1322,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>39798</v>
       </c>
@@ -1306,11 +1342,11 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>39752</v>
       </c>
@@ -1326,16 +1362,16 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42339</v>
       </c>
@@ -1351,11 +1387,11 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42339</v>
       </c>
@@ -1371,11 +1407,11 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42339</v>
       </c>
@@ -1391,11 +1427,11 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42339</v>
       </c>
@@ -1411,21 +1447,21 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42200</v>
       </c>
@@ -1441,11 +1477,11 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42200</v>
       </c>
@@ -1461,11 +1497,11 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42200</v>
       </c>
@@ -1481,16 +1517,16 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>41485</v>
       </c>
@@ -1506,11 +1542,11 @@
       <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>41485</v>
       </c>
@@ -1526,11 +1562,11 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>41523</v>
       </c>
@@ -1546,14 +1582,14 @@
       <c r="E23" t="s">
         <v>42</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>39</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>41219</v>
       </c>
@@ -1569,11 +1605,11 @@
       <c r="E25" t="s">
         <v>42</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>41134</v>
       </c>
@@ -1589,17 +1625,17 @@
       <c r="E26" t="s">
         <v>42</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>40909</v>
       </c>
@@ -1615,11 +1651,11 @@
       <c r="E28" t="s">
         <v>42</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>40909</v>
       </c>
@@ -1635,11 +1671,11 @@
       <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>40906</v>
       </c>
@@ -1655,11 +1691,11 @@
       <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>40906</v>
       </c>
@@ -1675,11 +1711,11 @@
       <c r="E31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>40695</v>
       </c>
@@ -1695,11 +1731,11 @@
       <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>40695</v>
       </c>
@@ -1715,11 +1751,11 @@
       <c r="E34" t="s">
         <v>42</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>40692</v>
       </c>
@@ -1735,11 +1771,11 @@
       <c r="E35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>40692</v>
       </c>
@@ -1755,14 +1791,14 @@
       <c r="E36" t="s">
         <v>42</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37943</v>
       </c>
@@ -1778,17 +1814,17 @@
       <c r="E38" t="s">
         <v>42</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>61</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40909</v>
       </c>
@@ -1804,11 +1840,11 @@
       <c r="E40" t="s">
         <v>37</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39814</v>
       </c>
@@ -1825,22 +1861,22 @@
         <f>$E$40</f>
         <v>NGI</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>42423</v>
       </c>
@@ -1856,17 +1892,19 @@
       <c r="E47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
-      <c r="K47" t="s">
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="4"/>
+      <c r="M47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>42452</v>
       </c>
@@ -1882,14 +1920,16 @@
       <c r="E48" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>42459</v>
       </c>
@@ -1905,14 +1945,16 @@
       <c r="E49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42186</v>
       </c>
@@ -1928,14 +1970,16 @@
       <c r="E50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>42423</v>
       </c>
@@ -1951,114 +1995,152 @@
       <c r="E51" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>42005</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
+        <v>42953</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="4"/>
+      <c r="L54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2070,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,51 +2164,51 @@
   <sheetData>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>86</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>89</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>90</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>91</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>92</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>93</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2134,10 +2216,10 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2154,10 +2236,10 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2174,10 +2256,10 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2194,10 +2276,10 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
         <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2214,10 +2296,10 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
         <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2234,10 +2316,10 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
         <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2254,10 +2336,10 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2274,10 +2356,10 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2294,10 +2376,10 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
         <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2314,10 +2396,10 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
         <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2334,7 +2416,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N27">
         <f>SUM(N15:N21)</f>
@@ -2343,7 +2425,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N28">
         <f>N22</f>

--- a/Docs/Funding/GEF5/baviannskloof_scenes.xlsx
+++ b/Docs/Funding/GEF5/baviannskloof_scenes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -214,9 +214,6 @@
     <t>The only available image prior to 2005.  Covers middle third of study area (which has few sites).</t>
   </si>
   <si>
-    <t>Sewefontein &amp; Tchugadu</t>
-  </si>
-  <si>
     <t>Worldview3</t>
   </si>
   <si>
@@ -401,12 +398,51 @@
   </si>
   <si>
     <t>This is recent and v dry and doesn't cover all Tchnuganu.  It is however unlikely that the uncovered area will be needed.  Recent is nice.  But also check sun elev etc</t>
+  </si>
+  <si>
+    <t>1030010078253F00</t>
+  </si>
+  <si>
+    <t>0.59m</t>
+  </si>
+  <si>
+    <t>After some rain in march - quite green by GSD not great</t>
+  </si>
+  <si>
+    <t>10400100338D2E00</t>
+  </si>
+  <si>
+    <t>0.34m</t>
+  </si>
+  <si>
+    <t>The new best option IMO - best view geometry &amp; GSD.  Still very dry at this time but it could be a good thing, so no small grasses etc confuse things</t>
+  </si>
+  <si>
+    <t>53.7°</t>
+  </si>
+  <si>
+    <t>16.9°</t>
+  </si>
+  <si>
+    <t>See https://discover.digitalglobe.com/ for other recent options</t>
+  </si>
+  <si>
+    <t>Sewefontein &amp; Tchnuganu</t>
+  </si>
+  <si>
+    <t>26.7°</t>
+  </si>
+  <si>
+    <t>46.1°</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,22 +934,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,18 +1298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,11 +1325,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>122</v>
+      <c r="F1" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1301,12 +1338,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39703</v>
       </c>
@@ -1326,7 +1363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>39798</v>
       </c>
@@ -1346,7 +1383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39752</v>
       </c>
@@ -1366,12 +1403,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42339</v>
       </c>
@@ -1391,7 +1428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42339</v>
       </c>
@@ -1411,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42339</v>
       </c>
@@ -1431,7 +1468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42339</v>
       </c>
@@ -1451,17 +1488,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42200</v>
       </c>
@@ -1481,7 +1518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42200</v>
       </c>
@@ -1501,7 +1538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42200</v>
       </c>
@@ -1521,12 +1558,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41485</v>
       </c>
@@ -1546,7 +1583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41485</v>
       </c>
@@ -1566,7 +1603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41523</v>
       </c>
@@ -1589,7 +1626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41219</v>
       </c>
@@ -1609,7 +1646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41134</v>
       </c>
@@ -1632,10 +1669,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40909</v>
       </c>
@@ -1655,7 +1692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40909</v>
       </c>
@@ -1675,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40906</v>
       </c>
@@ -1695,7 +1732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40906</v>
       </c>
@@ -1715,7 +1752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40695</v>
       </c>
@@ -1735,7 +1772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40695</v>
       </c>
@@ -1755,7 +1792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40692</v>
       </c>
@@ -1775,7 +1812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40692</v>
       </c>
@@ -1795,10 +1832,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37943</v>
       </c>
@@ -1821,10 +1858,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40909</v>
       </c>
@@ -1844,7 +1881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39814</v>
       </c>
@@ -1865,282 +1902,297 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>42423</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="4"/>
       <c r="M47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
         <v>42452</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
         <v>42459</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>42186</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>42186</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>42423</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <v>42423</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="F51" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>42005</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="H52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>42953</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="4"/>
+      <c r="L53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>43182</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>42005</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="C54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
-        <v>42953</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="F54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="4"/>
       <c r="L54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>43009</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="L55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2156,70 +2208,70 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>88</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>89</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>90</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>91</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>92</v>
       </c>
-      <c r="N13" t="s">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2234,12 +2286,12 @@
         <v>12.635297750188499</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
         <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2254,12 +2306,12 @@
         <v>15.607345443719501</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2274,12 +2326,12 @@
         <v>38.910017796810898</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2294,12 +2346,12 @@
         <v>25.4995299778579</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2314,12 +2366,12 @@
         <v>29.169015905699499</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
         <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2334,12 +2386,12 @@
         <v>140.362090527877</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2354,12 +2406,12 @@
         <v>10.111322343280801</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2374,12 +2426,12 @@
         <v>220.49247735826199</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2394,12 +2446,12 @@
         <v>1051.15893171067</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
         <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2414,18 +2466,18 @@
         <v>142.02802803094701</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N27">
         <f>SUM(N15:N21)</f>
         <v>272.29461974543409</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N28">
         <f>N22</f>
